--- a/Übersicht HTTP-Verben.xlsx
+++ b/Übersicht HTTP-Verben.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>/idea</t>
   </si>
@@ -25,15 +25,6 @@
     <t>/ideas/{user-id}</t>
   </si>
   <si>
-    <t>/idea/id/comment</t>
-  </si>
-  <si>
-    <t>/idea/id/rating</t>
-  </si>
-  <si>
-    <t>/idea/id/status</t>
-  </si>
-  <si>
     <t>/signup</t>
   </si>
   <si>
@@ -49,9 +40,6 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>s. Doku</t>
-  </si>
-  <si>
     <t>Liste aller Ideen</t>
   </si>
   <si>
@@ -61,15 +49,80 @@
     <t>Kommentar löschen</t>
   </si>
   <si>
-    <t>Status ändern</t>
+    <t>/idea/{id}/comment/{id}</t>
+  </si>
+  <si>
+    <t>/idea/{id}/comment</t>
+  </si>
+  <si>
+    <t>Alle Kommentare zu einer Idee</t>
+  </si>
+  <si>
+    <t>Ein bestimmter Kommentar</t>
+  </si>
+  <si>
+    <t>HTTP-Code 405:</t>
+  </si>
+  <si>
+    <t>Method not allowed</t>
+  </si>
+  <si>
+    <t>Die angefragte Methode ist nicht definiert und wird nicht unterstützt</t>
+  </si>
+  <si>
+    <t>/idea/{id}/rating</t>
+  </si>
+  <si>
+    <t>/idea/{id}/rating/{id}</t>
+  </si>
+  <si>
+    <t>Bewertung ändern</t>
+  </si>
+  <si>
+    <t>Sinnvolle Methode, nicht in User-Stories, daher nicht weiter definiert</t>
+  </si>
+  <si>
+    <t>s. Doku (1)</t>
+  </si>
+  <si>
+    <t>s. Doku (3)</t>
+  </si>
+  <si>
+    <t>s. Doku (2)</t>
+  </si>
+  <si>
+    <t>s. Doku (4)</t>
+  </si>
+  <si>
+    <t>Methode gemäß User-Stories (Nummer in Klammern), siehe Dokumentation der API in Swagger</t>
+  </si>
+  <si>
+    <t>s. Doku (5)</t>
+  </si>
+  <si>
+    <t>s. Doku (6)</t>
+  </si>
+  <si>
+    <t>s. Doku (8)</t>
+  </si>
+  <si>
+    <t>s. Doku (7)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,11 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -424,43 +478,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.21875" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>405</v>
@@ -473,65 +528,65 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>405</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1">
+        <v>405</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>405</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1">
+        <v>405</v>
+      </c>
+      <c r="E4" s="1">
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="1">
         <v>405</v>
       </c>
-      <c r="D5" s="1">
-        <v>405</v>
-      </c>
-      <c r="E5" s="1">
-        <v>405</v>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>405</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>405</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>405</v>
       </c>
       <c r="E6" s="1">
         <v>405</v>
@@ -539,16 +594,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>405</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1">
-        <v>405</v>
+      <c r="C7" s="1">
+        <v>405</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="1">
         <v>405</v>
@@ -556,10 +611,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>405</v>
@@ -569,9 +624,50 @@
       </c>
       <c r="E8" s="1">
         <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>405</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <v>405</v>
+      </c>
+      <c r="E9" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>